--- a/data/conversation_memory.xlsx
+++ b/data/conversation_memory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,6 +730,228 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mem_20250712153142</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>What does Amazon do?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>user_message</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{"timestamp": "2025-07-12T15:31:42.056693"}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-07-12T15:31:42.056746</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mem_20250712153647</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>what does Amazon do?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>user_message</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{"timestamp": "2025-07-12T15:36:47.951921"}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-07-12T15:36:47.951973</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mem_20250712155801</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>What does Amazon do?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>user_message</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{"timestamp": "2025-07-12T15:58:01.691218"}</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-07-12T15:58:01.691277</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mem_20250712160422</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>What does Amazon do?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>user_message</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{"timestamp": "2025-07-12T16:04:22.820790"}</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-07-12T16:04:22.820870</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mem_20250712224038</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>What does Amazon do?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>user_message</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{"timestamp": "2025-07-12T22:40:38.535852"}</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-07-12T22:40:38.535899</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mem_20250712224040</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Amazon is a multinational technology company that focuses on e-commerce, cloud computing, digital streaming, and artificial intelligence. Is there something specific you would like to know about Amazon's services or products?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>assistant_message</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{"timestamp": "2025-07-12T22:40:40.507334"}</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-07-12T22:40:40.507383</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mem_20250712224055</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Give me companies similar to Amazon</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>user_message</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{"timestamp": "2025-07-12T22:40:55.975935"}</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-07-12T22:40:55.975975</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mem_20250712224057</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Companies similar to Amazon include:
+1. Alibaba Group: A Chinese multinational conglomerate specializing in e-commerce, retail, internet, and technology.
+2. Walmart: An American multinational retail corporation that operates a chain of hypermarkets, department stores, and grocery stores.
+3. eBay: An American multinational e-commerce corporation that facilitates consumer-to-consumer and business-to-consumer sales through its website.
+4. JD.com: A Chinese e-commerce company similar to Amazon, offering a wide range of products and services.
+5. Google: While not a direct competitor in e-commerce, Google's parent company Alphabet Inc. is a major player in technology, cloud computing, and online services like Amazon.
+If you would like more information about any of these companies or if you have any other specific questions, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>assistant_message</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{"timestamp": "2025-07-12T22:40:57.336294"}</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-07-12T22:40:57.336342</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
